--- a/result/Astronomy_consen.xlsx
+++ b/result/Astronomy_consen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.21739130434783</v>
+        <v>38.61538461538461</v>
       </c>
       <c r="C2" t="n">
-        <v>12.21739130434783</v>
+        <v>0.0034918076819769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1194029850746269</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>3.599668960687691</v>
+        <v>12.74818176082506</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.101265822784811</v>
+        <v>18.69387755102041</v>
       </c>
       <c r="C3" t="n">
-        <v>7.10126582278481</v>
+        <v>0.0131614289551437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.3904109589041096</v>
       </c>
       <c r="E3" t="n">
-        <v>3.431786850334346</v>
+        <v>11.72700268629592</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.494505494505495</v>
+        <v>1.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4945054945054945</v>
+        <v>0.0128928283642224</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3368146214099217</v>
+        <v>0.5772357723577236</v>
       </c>
       <c r="E4" t="n">
-        <v>1.503191463490483</v>
+        <v>5.223846492206816</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.029411764705882</v>
+        <v>14.88</v>
       </c>
       <c r="C5" t="n">
-        <v>4.029411764705882</v>
+        <v>0.006715014773032501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7393715341959335</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="E5" t="n">
-        <v>2.108904095378495</v>
+        <v>12.33857965714263</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.933333333333334</v>
+        <v>22.53333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>7.933333333333334</v>
+        <v>0.0040290088638195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1728395061728395</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="E6" t="n">
-        <v>3.170428042209894</v>
+        <v>12.22018045714785</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.868852459016393</v>
+        <v>13.51612903225806</v>
       </c>
       <c r="C7" t="n">
-        <v>4.868852459016393</v>
+        <v>0.008326618318560301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1703296703296703</v>
+        <v>0.29</v>
       </c>
       <c r="E7" t="n">
-        <v>2.677596631186319</v>
+        <v>11.21913604927706</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.783132530120482</v>
+        <v>17.39473684210526</v>
       </c>
       <c r="C8" t="n">
-        <v>4.783132530120482</v>
+        <v>0.0102068224550094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1463022508038585</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="E8" t="n">
-        <v>2.645712635543374</v>
+        <v>11.55218448302194</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.728571428571429</v>
+        <v>16.38</v>
       </c>
       <c r="C9" t="n">
-        <v>6.728571428571429</v>
+        <v>0.013430029546065</v>
       </c>
       <c r="D9" t="n">
-        <v>1.196652719665272</v>
+        <v>1.542372881355932</v>
       </c>
       <c r="E9" t="n">
-        <v>4.785398732650505</v>
+        <v>11.87286574148297</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.666666666666667</v>
+        <v>14.12121212121212</v>
       </c>
       <c r="C10" t="n">
-        <v>6.666666666666667</v>
+        <v>0.008863819500402902</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7961783439490446</v>
+        <v>0.8216560509554141</v>
       </c>
       <c r="E10" t="n">
-        <v>9.375859400297561</v>
+        <v>11.91344305690753</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.6</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>7.6</v>
+        <v>0.0120870265914585</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="E11" t="n">
-        <v>9.053948480412883</v>
+        <v>11.54317041965799</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.345454545454546</v>
+        <v>15.43636363636364</v>
       </c>
       <c r="C12" t="n">
-        <v>8.345454545454546</v>
+        <v>0.0147730325006715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="E12" t="n">
-        <v>8.606949947859238</v>
+        <v>11.7100911223307</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.745901639344262</v>
+        <v>7.221311475409836</v>
       </c>
       <c r="C13" t="n">
-        <v>3.745901639344262</v>
+        <v>0.0327692720923986</v>
       </c>
       <c r="D13" t="n">
-        <v>3.717548948513416</v>
+        <v>4.068527918781726</v>
       </c>
       <c r="E13" t="n">
-        <v>8.19068799802165</v>
+        <v>10.9971357070592</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.96153846153846</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>10.96153846153846</v>
+        <v>0.006983615363953801</v>
       </c>
       <c r="D14" t="n">
         <v>0.1285714285714286</v>
       </c>
       <c r="E14" t="n">
-        <v>9.075574500030211</v>
+        <v>11.65318720157808</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.67857142857143</v>
+        <v>27.03571428571428</v>
       </c>
       <c r="C15" t="n">
-        <v>13.67857142857143</v>
+        <v>0.007520816545796401</v>
       </c>
       <c r="D15" t="n">
         <v>0.3170731707317073</v>
       </c>
       <c r="E15" t="n">
-        <v>10.13532517772845</v>
+        <v>12.71931430653327</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.981132075471698</v>
+        <v>12.69811320754717</v>
       </c>
       <c r="C16" t="n">
-        <v>6.981132075471698</v>
+        <v>0.0142358313188289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3904761904761905</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="E16" t="n">
-        <v>8.736777039677495</v>
+        <v>11.45082311336733</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.58064516129032</v>
+        <v>18.90322580645161</v>
       </c>
       <c r="C17" t="n">
-        <v>10.58064516129032</v>
+        <v>0.008326618318560301</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="E17" t="n">
-        <v>8.635146874675721</v>
+        <v>11.82097813607968</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.79411764705882</v>
+        <v>17.41176470588235</v>
       </c>
       <c r="C18" t="n">
-        <v>9.794117647058824</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>8.094933051861373</v>
+        <v>10.84643356536144</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.95652173913044</v>
+        <v>25.82608695652174</v>
       </c>
       <c r="C19" t="n">
-        <v>11.95652173913044</v>
+        <v>0.006177813591189901</v>
       </c>
       <c r="D19" t="n">
-        <v>0.417910447761194</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="E19" t="n">
-        <v>10.08356486758817</v>
+        <v>12.71879196217705</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.075757575757576</v>
+        <v>14.06060606060606</v>
       </c>
       <c r="C20" t="n">
-        <v>7.075757575757576</v>
+        <v>0.0177276390008058</v>
       </c>
       <c r="D20" t="n">
-        <v>1.045130641330166</v>
+        <v>1.232779097387174</v>
       </c>
       <c r="E20" t="n">
-        <v>8.554549010179683</v>
+        <v>11.40783492486282</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.766666666666667</v>
+        <v>14.3</v>
       </c>
       <c r="C21" t="n">
-        <v>6.766666666666667</v>
+        <v>0.008058017727639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="E21" t="n">
-        <v>9.007509970273695</v>
+        <v>11.47094149929074</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.16</v>
+        <v>25.64</v>
       </c>
       <c r="C22" t="n">
-        <v>12.16</v>
+        <v>0.006715014773032501</v>
       </c>
       <c r="D22" t="n">
         <v>0.2465753424657534</v>
       </c>
       <c r="E22" t="n">
-        <v>9.107006915154166</v>
+        <v>11.9902947727392</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.217391304347826</v>
+        <v>11.14492753623188</v>
       </c>
       <c r="C23" t="n">
-        <v>6.217391304347826</v>
+        <v>0.0185334407735697</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1342592592592593</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E23" t="n">
-        <v>7.76890321627167</v>
+        <v>10.26134929811099</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.983606557377049</v>
+        <v>11.0655737704918</v>
       </c>
       <c r="C24" t="n">
-        <v>5.983606557377049</v>
+        <v>0.0163846360461993</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5497835497835498</v>
       </c>
       <c r="E24" t="n">
-        <v>8.540551878646079</v>
+        <v>10.9622543602979</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.976744186046512</v>
+        <v>15.55813953488372</v>
       </c>
       <c r="C25" t="n">
-        <v>8.976744186046512</v>
+        <v>0.0115498254096159</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="E25" t="n">
-        <v>8.020416694266022</v>
+        <v>10.90054276750367</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.69565217391304</v>
+        <v>25.82608695652174</v>
       </c>
       <c r="C26" t="n">
-        <v>13.69565217391304</v>
+        <v>0.006177813591189901</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7184466019417476</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="E26" t="n">
-        <v>10.32482082894869</v>
+        <v>12.9049700858504</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.42307692307692</v>
+        <v>20.69230769230769</v>
       </c>
       <c r="C27" t="n">
-        <v>11.42307692307692</v>
+        <v>0.006983615363953801</v>
       </c>
       <c r="D27" t="n">
         <v>0.3461538461538461</v>
       </c>
       <c r="E27" t="n">
-        <v>9.680642303614615</v>
+        <v>12.29044058879722</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.204545454545454</v>
+        <v>11.04545454545454</v>
       </c>
       <c r="C28" t="n">
-        <v>6.204545454545454</v>
+        <v>0.0118184260005372</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="E28" t="n">
-        <v>9.064096885361085</v>
+        <v>11.64320882305704</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.176470588235293</v>
+        <v>14.44117647058824</v>
       </c>
       <c r="C29" t="n">
-        <v>7.176470588235294</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9443037974683545</v>
+        <v>1.007594936708861</v>
       </c>
       <c r="E29" t="n">
-        <v>8.457294564038039</v>
+        <v>11.1744688356909</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.473684210526316</v>
+        <v>12.87719298245614</v>
       </c>
       <c r="C30" t="n">
-        <v>6.473684210526316</v>
+        <v>0.0153102336825141</v>
       </c>
       <c r="D30" t="n">
-        <v>1.185585585585586</v>
+        <v>1.50990990990991</v>
       </c>
       <c r="E30" t="n">
-        <v>8.315878898413732</v>
+        <v>11.26725973805007</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.111111111111111</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="C31" t="n">
-        <v>7.111111111111111</v>
+        <v>0.004834810636583401</v>
       </c>
       <c r="D31" t="n">
         <v>0.08450704225352113</v>
       </c>
       <c r="E31" t="n">
-        <v>8.432269415163777</v>
+        <v>10.93639888061083</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.543859649122806</v>
+        <v>13.36842105263158</v>
       </c>
       <c r="C32" t="n">
-        <v>7.543859649122807</v>
+        <v>0.0153102336825141</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2664092664092664</v>
+        <v>0.4671814671814672</v>
       </c>
       <c r="E32" t="n">
-        <v>9.334355691094419</v>
+        <v>11.97388515167565</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.961538461538462</v>
+        <v>12.96153846153846</v>
       </c>
       <c r="C33" t="n">
-        <v>5.961538461538462</v>
+        <v>0.0139672307279076</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8919753086419753</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E33" t="n">
-        <v>9.190446578289427</v>
+        <v>11.79796917826575</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.535714285714286</v>
+        <v>8.321428571428571</v>
       </c>
       <c r="C34" t="n">
-        <v>5.535714285714286</v>
+        <v>0.007520816545796401</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2073170731707317</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="E34" t="n">
-        <v>8.426558235284611</v>
+        <v>11.7658297250919</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.619565217391305</v>
+        <v>7.054347826086956</v>
       </c>
       <c r="C35" t="n">
-        <v>3.619565217391304</v>
+        <v>0.0247112543647596</v>
       </c>
       <c r="D35" t="n">
-        <v>1.128412537917088</v>
+        <v>1.31041456016178</v>
       </c>
       <c r="E35" t="n">
-        <v>8.778769359283682</v>
+        <v>11.34996524339413</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.838709677419355</v>
+        <v>11.06451612903226</v>
       </c>
       <c r="C36" t="n">
-        <v>5.838709677419355</v>
+        <v>0.0166532366371206</v>
       </c>
       <c r="D36" t="n">
-        <v>0.427007299270073</v>
+        <v>0.4963503649635037</v>
       </c>
       <c r="E36" t="n">
-        <v>8.006654309177158</v>
+        <v>10.69073199471315</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.275</v>
+        <v>15.875</v>
       </c>
       <c r="C37" t="n">
-        <v>9.275</v>
+        <v>0.010744023636852</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="E37" t="n">
-        <v>7.655747121031714</v>
+        <v>10.76184015475422</v>
       </c>
     </row>
     <row r="38">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.360655737704919</v>
+        <v>14.81967213114754</v>
       </c>
       <c r="C38" t="n">
-        <v>8.360655737704919</v>
+        <v>0.0163846360461993</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2885572139303483</v>
+        <v>0.3631840796019901</v>
       </c>
       <c r="E38" t="n">
-        <v>8.472163452717727</v>
+        <v>11.15473675438507</v>
       </c>
     </row>
     <row r="39">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.384615384615385</v>
+        <v>11.92307692307692</v>
       </c>
       <c r="C39" t="n">
-        <v>6.384615384615385</v>
+        <v>0.0174590384098845</v>
       </c>
       <c r="D39" t="n">
-        <v>1.255023183925811</v>
+        <v>1.426584234930448</v>
       </c>
       <c r="E39" t="n">
-        <v>7.756866862480507</v>
+        <v>10.83918518468846</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.03225806451613</v>
+        <v>19.03225806451613</v>
       </c>
       <c r="C40" t="n">
-        <v>11.03225806451613</v>
+        <v>0.008326618318560301</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2086330935251799</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="E40" t="n">
-        <v>9.044111553535462</v>
+        <v>12.25325641064532</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.36666666666667</v>
+        <v>17.6</v>
       </c>
       <c r="C41" t="n">
-        <v>9.366666666666667</v>
+        <v>0.008058017727639</v>
       </c>
       <c r="D41" t="n">
         <v>0.34375</v>
       </c>
       <c r="E41" t="n">
-        <v>9.624235995179022</v>
+        <v>12.12996050104123</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.215189873417722</v>
+        <v>6.683544303797468</v>
       </c>
       <c r="C42" t="n">
-        <v>3.215189873417721</v>
+        <v>0.0212194466827827</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5330243337195828</v>
+        <v>0.764774044032445</v>
       </c>
       <c r="E42" t="n">
-        <v>7.58405522609258</v>
+        <v>10.55686324711724</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.38888888888889</v>
+        <v>21.41666666666667</v>
       </c>
       <c r="C43" t="n">
-        <v>11.38888888888889</v>
+        <v>0.009669621273166801</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8652482269503546</v>
+        <v>0.9078014184397163</v>
       </c>
       <c r="E43" t="n">
-        <v>9.328063172271563</v>
+        <v>12.29458698403582</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>20.88888888888889</v>
+        <v>39.11111111111111</v>
       </c>
       <c r="C44" t="n">
-        <v>19.88888888888889</v>
+        <v>0.0024174053182917</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E44" t="n">
-        <v>6.32745087619903</v>
+        <v>10.27834588932437</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>21.26470588235294</v>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="E45" t="n">
-        <v>8.574322959435243</v>
+        <v>11.38277236968069</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.89473684210526</v>
+        <v>20.63157894736842</v>
       </c>
       <c r="C46" t="n">
-        <v>10.89473684210526</v>
+        <v>0.0051034112275047</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3150684931506849</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="E46" t="n">
-        <v>7.652666383689334</v>
+        <v>11.05705480450629</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8.214285714285714</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="C47" t="n">
-        <v>7.214285714285714</v>
+        <v>0.0112812248186946</v>
       </c>
       <c r="D47" t="n">
-        <v>1.022508038585209</v>
+        <v>1.154340836012862</v>
       </c>
       <c r="E47" t="n">
-        <v>8.880559112209738</v>
+        <v>11.42273091706677</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>11.57142857142857</v>
+        <v>24.28571428571428</v>
       </c>
       <c r="C48" t="n">
-        <v>10.57142857142857</v>
+        <v>0.0037604082728982</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="E48" t="n">
-        <v>10.66119290424832</v>
+        <v>13.27412324352937</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9.702127659574469</v>
+        <v>16.68085106382979</v>
       </c>
       <c r="C49" t="n">
-        <v>8.702127659574469</v>
+        <v>0.0126242277733011</v>
       </c>
       <c r="D49" t="n">
-        <v>1.006514657980456</v>
+        <v>1.110749185667752</v>
       </c>
       <c r="E49" t="n">
-        <v>8.081227473095984</v>
+        <v>11.19012221625558</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,814 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5.35593220338983</v>
+        <v>8.661016949152541</v>
       </c>
       <c r="C50" t="n">
-        <v>4.35593220338983</v>
+        <v>0.0158474348643567</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4869109947643979</v>
+        <v>0.5314136125654451</v>
       </c>
       <c r="E50" t="n">
-        <v>6.274242174659388</v>
+        <v>9.621493657655849</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_54</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>22.90476190476191</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.005640612409347301</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.60886952040831</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_55</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10.71111111111111</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0120870265914585</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.447619047619048</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.71146475980207</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_56</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6.272727272727272</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0059092130002686</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12.51506306820495</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_58</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>17.51282051282051</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0104754230459307</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6691729323308271</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.00610569858311</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_59</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>15.38095238095238</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0169218372280419</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5968379446640316</v>
+      </c>
+      <c r="E55" t="n">
+        <v>11.36781075527817</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_60</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>11.74576271186441</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0158474348643567</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4349315068493151</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.38211028612908</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_61</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.007520816545796401</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11.83211579128771</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_62</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>12.5625</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.004297609454740801</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.303296241572335</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_63</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>11.53731343283582</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0179962395917271</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.024615384615385</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.64690250185342</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_64</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>17.67741935483871</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.008326618318560301</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2808988764044944</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.60247094789434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_65</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>23.79166666666667</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0064464141821112</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5189873417721519</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12.02897382526946</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_66</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>26.33333333333333</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.005640612409347301</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6027397260273972</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.65345145538957</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_67</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10.64516129032258</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0166532366371206</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.41423125794155</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10.49758319819513</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_68</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9.619047619047619</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0225624496373892</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.720419847328244</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10.64999376516405</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_69</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16.80645161290322</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.008326618318560301</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.6837606837606838</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.58192736136797</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_70</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>14.28846153846154</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0139672307279076</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.029545454545455</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11.7783037954322</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_71</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>24.91666666666667</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0032232070910556</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.33893523453269</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_72</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>20.36585365853659</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0110126242277733</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.3790322580645161</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.45888136414504</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_73</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8.338461538461539</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0174590384098845</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.086258776328987</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11.27140053059377</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_74</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.009401020682245501</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8502994011976048</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11.68397327331688</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_75</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>24.475</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.010744023636852</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5328467153284672</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.6223682416716</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_76</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>14.82222222222222</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0120870265914585</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5960591133004927</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.14938374968673</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_77</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>17.14814814814815</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0145044319097502</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.453978159126365</v>
+      </c>
+      <c r="E73" t="n">
+        <v>11.71045090821887</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_78</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>14.04838709677419</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0166532366371206</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.682170542635659</v>
+      </c>
+      <c r="E74" t="n">
+        <v>11.5554629563449</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_79</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>23.58620689655172</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0077894171367177</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12.06588696586776</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_80</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>29.15789473684211</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0051034112275047</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11.96499739910965</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_81</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>14.89583333333333</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0128928283642224</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5844875346260388</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12.59270682107944</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_82</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.013430029546065</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.024064171122995</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11.5785780048718</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_83</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>11.65909090909091</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0118184260005372</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5420560747663551</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10.88332566154239</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_84</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>26.14285714285714</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.005640612409347301</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12.75083467842748</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Web_85</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>11.89393939393939</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0177276390008058</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10.85736734646482</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_86</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>13.58974358974359</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0104754230459307</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6535947712418301</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12.16911614758167</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_87</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>18.73529411764706</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0091324200913242</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.01530612244898</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11.53755912510674</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_89</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>15.4375</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.008595218909481601</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7799043062200957</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10.8156749018199</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_90</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>20.11111111111111</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.007252215954875101</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.63348929617312</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_91</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>13.86538461538461</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0139672307279076</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.533642691415313</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.34444663123178</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_92</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.002686005909213</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>13.18436147974585</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_93</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>26.46666666666667</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0040290088638195</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E88" t="n">
+        <v>12.43029970219126</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_94</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>26</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.006715014773032501</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.8524590163934426</v>
+      </c>
+      <c r="E89" t="n">
+        <v>12.76280951314216</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_95</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>22.82142857142857</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.007520816545796401</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6869565217391305</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.6770253187566</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_96</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>28.11111111111111</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.004834810636583401</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="E91" t="n">
+        <v>12.64149343929338</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Astronomy_Book_97</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>16.02439024390244</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0110126242277733</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.75942484676788</v>
       </c>
     </row>
   </sheetData>
